--- a/data/soe_tables_2024.01.29.xlsx
+++ b/data/soe_tables_2024.01.29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E21D4-CE36-3143-888C-776EE30EC37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2EA92E-7067-6347-9A3F-9E89743E52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15840" activeTab="3" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -586,19 +586,19 @@
     <t>Some concerns. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear, but the number of dropouts in studies examining single doses should be small.</t>
   </si>
   <si>
-    <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process, missing outcome data, and period/carryover effects). The magnitude of the bias on the effects of TAAR1 agonists compared to placebo was probably small, but this may have favoured the former.</t>
-  </si>
-  <si>
-    <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process and missing outcome data). The magnitude of the bias on the effects of TAAR1 agonists compared to placebo was probably small, but this may have favoured the former.</t>
-  </si>
-  <si>
-    <t>Some concerns: 1 study with overall some concerns in risk of bias regarding the randomization process and missing outcome data. The magnitude of the bias on the effects of TAAR1 agonists compared to placebo was probably small, but this may have favoured the former.</t>
-  </si>
-  <si>
     <t>Some concerns: The study had a low risk of bias (Figure 2), but it is unclear whether the selection of the primary outcome reported in this table was determined a priori or a posteriori. The findings from all measured outcomes were reported, but not all those regarding interactions with schizotypy traits. Nevertheless, the possibility of bias due to selectively reported results cannot be excluded. This bias could have exaggerated the findings in favor of TAAR1 agonists.</t>
   </si>
   <si>
     <t>High risk: The study was single arm without control conditions, and open label. The outcome measure can be considered objective. Uncontrolled findings may be exaggerated in favor of TAAR1 agonists.</t>
+  </si>
+  <si>
+    <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process, missing outcome data, and period/carryover effects). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Some concerns: 1 study with overall some concerns in risk of bias regarding the randomization process and missing outcome data. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process and missing outcome data). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
   </si>
 </sst>
 </file>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08253F0C-4289-D043-AC5B-88B42FBA67DF}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1850,7 +1850,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="155" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>166</v>
@@ -1953,7 +1953,7 @@
         <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>166</v>
@@ -1988,7 +1988,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>166</v>
@@ -2896,7 +2896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2946,7 +2946,7 @@
         <v>146</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>157</v>
@@ -2969,7 +2969,7 @@
         <v>149</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>157</v>

--- a/data/soe_tables_2024.01.29.xlsx
+++ b/data/soe_tables_2024.01.29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2EA92E-7067-6347-9A3F-9E89743E52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306C17F9-69F3-614A-B78F-AAD92A839020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15840" activeTab="3" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="22640" yWindow="-18120" windowWidth="27640" windowHeight="15840" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -61,24 +61,15 @@
     <t>Low risk: No clear indication of indirectness.</t>
   </si>
   <si>
-    <t>N=4,  n=1357; Random-effects: 23.7% vs. 18.7%, OR=1.35, 95%CI: 0.86, 2.12;  Fixed-effecs: OR=1.39, 95%CI: 1.04, 1.86</t>
-  </si>
-  <si>
     <t>Low risk: No clear indication of indirectness</t>
   </si>
   <si>
     <t>4 weeks</t>
   </si>
   <si>
-    <t>N=2, n=399; Random-effects: SMD=0.23, 95%CI: 0.03, 0.43; Fixed-effecs: SMD=0.23, 95%CI: 0.03, 0.43</t>
-  </si>
-  <si>
     <t>Negative symptoms (PANSS negative subscale/factor) (Figure 5)</t>
   </si>
   <si>
-    <t>N=2, n=399; Random-effects: SMD=0.23, 95%CI: -0.01, 0.48; Fixed-effecs: SMD=0.24, 95%CI: 0.04, 0.44</t>
-  </si>
-  <si>
     <t>Depressive symptoms (PANSS anxiety/depression factor) (Figure 6)</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>Dropouts due to any reason (Figure 11)</t>
   </si>
   <si>
-    <t>N=5, n=1396; Random-effects: 22.9% vs. 19.6%, OR=1.22, 95%CI: 0.93, 1.60; Fixed-effecs: OR=1.22, 95%CI: 0.93, 1.60</t>
-  </si>
-  <si>
     <t>Low risk: 80% studies and 97.2% participants with schizophrenia.</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>Dropouts due to adverse events (Figure 13)</t>
   </si>
   <si>
-    <t>N=3 n=497; Random-effects: 8.1% vs. 7.1%, OR=1.15, 95%CI: 0.58, 2.29; Fixed-effecs: OR=1.19, 95%CI: 0.6, 2.34</t>
-  </si>
-  <si>
     <t>Low risk: 66.7% studies and 92.2% participants with schizophrenia.</t>
   </si>
   <si>
@@ -160,15 +145,9 @@
     <t>1 day to 2 weeks</t>
   </si>
   <si>
-    <t>N=4 n=177; Random-effects: 4.6% vs. 1.6%, OR=3.02, 95%CI: 0.36, 25.76; Fixed-effecs: OR=3.02, 95%CI: 0.36, 25.76</t>
-  </si>
-  <si>
     <t>Serious adverse events (Figure 15)</t>
   </si>
   <si>
-    <t>N=3 n=497; Random-effects: 2.7% vs. 2.7%, OR=0.97, 95%CI: 0.28, 3.38; Fixed-effecs: OR=1.01, 95%CI: 0.32, 3.21</t>
-  </si>
-  <si>
     <t>Low risk: 66.7% studies and 92.2% participants with schizophrenia</t>
   </si>
   <si>
@@ -187,15 +166,9 @@
     <t>Any adverse event (Figure 17)</t>
   </si>
   <si>
-    <t>N=4 n=177; Random-effects: 52.3% vs. 11.4%, OR=8.49, 95%CI: 1.73, 41.66; Fixed-effecs: OR=9.3, 95%CI: 3.92, 22.08</t>
-  </si>
-  <si>
     <t>Any adverse event (Figure 18)</t>
   </si>
   <si>
-    <t>N=3 n=497; Random-effects: 48.7% vs. 54.6%, OR=0.79, 95%CI: 0.54, 1.15; Fixed-effecs: OR=0.78, 95%CI: 0.54, 1.15</t>
-  </si>
-  <si>
     <t>Anticholinergic symptom (Figure 19)</t>
   </si>
   <si>
@@ -211,9 +184,6 @@
     <t>Dizziness (Figure 21)</t>
   </si>
   <si>
-    <t>N=2 n=137; Random-effects: 19.9% vs. 3.5%, OR=6.89, 95%CI: 1.98, 23.92; Fixed-effecs: OR=6.89, 95%CI: 1.98, 23.92</t>
-  </si>
-  <si>
     <t>Dizziness (Figure 22)</t>
   </si>
   <si>
@@ -223,24 +193,12 @@
     <t>Nausea/vomitting (Figure 23)</t>
   </si>
   <si>
-    <t>N=3 n=161; Random-effects: 19.5% vs. 1.6%, OR=15.14, 95%CI: 3.71, 61.75; Fixed-effecs: OR=15.14, 95%CI: 3.71, 61.75</t>
-  </si>
-  <si>
     <t>Nausea/vomitting (Figure 24)</t>
   </si>
   <si>
-    <t>N=3 n=497; Random-effects: 3.9% vs. 4.4%, OR=0.88, 95%CI: 0.25, 3.15; Fixed-effecs: OR=0.92, 95%CI: 0.38, 2.24</t>
-  </si>
-  <si>
-    <t>QTc prolongation (any cutoff) (Figure 25)</t>
-  </si>
-  <si>
     <t>N=2 n=92; 8.1% vs. 1.6%, OR=5.32, 95%CI: 0.6, 46.78</t>
   </si>
   <si>
-    <t>QTc prolongation (any cutoff)</t>
-  </si>
-  <si>
     <t>N=1 n=245; not estimable effect size 0 events in both arms</t>
   </si>
   <si>
@@ -250,21 +208,12 @@
     <t>N=1 n=62; MD=1.25, 95%CI: -2.87, 5.37</t>
   </si>
   <si>
-    <t>Weight increased (≥7% increase or any cutoff) (Figure 27)</t>
-  </si>
-  <si>
-    <t>N=2 n=458; Random-effects: 1.1% vs. 1%, OR=1.04, 95%CI: 0.17, 6.47; Fixed-effecs: OR=1.04, 95%CI: 0.17, 6.47</t>
-  </si>
-  <si>
     <t>Weight (kg) (Figure 28)</t>
   </si>
   <si>
     <t>N=1 n=245; MD=0.4, 95%CI: -0.13, 0.93</t>
   </si>
   <si>
-    <t>Prolactin elevation (any cutoff)</t>
-  </si>
-  <si>
     <t>N=1 n=24; not estimable effect size 0 events in both arms</t>
   </si>
   <si>
@@ -295,15 +244,9 @@
     <t>Anxiety (Figure 32)</t>
   </si>
   <si>
-    <t>N=2 n=458; Random-effects: 2.6% vs. 7.6%, OR=0.32, 95%CI: 0.12, 0.85; Fixed-effecs: OR=0.31, 95%CI: 0.12, 0.8</t>
-  </si>
-  <si>
     <t>Agitation (Figure 33)</t>
   </si>
   <si>
-    <t>N=2 n=458; Random-effects: 5.5% vs. 4.2%, OR=1.35, 95%CI: 0.53, 3.43; Fixed-effecs: OR=1.38, 95%CI: 0.56, 3.45</t>
-  </si>
-  <si>
     <t>Headache (Figure 33)</t>
   </si>
   <si>
@@ -313,27 +256,15 @@
     <t>Headache (Figure 34)</t>
   </si>
   <si>
-    <t>N=2 n=458; Random-effects: 7.9% vs. 9%, OR=0.86, 95%CI: 0.43, 1.69; Fixed-effecs: OR=0.86, 95%CI: 0.44, 1.68</t>
-  </si>
-  <si>
     <t>Sedation (Figure 36)</t>
   </si>
   <si>
-    <t>N=3 n=161; Random-effects: 28.8% vs. 4.1%, OR=9.55, 95%CI: 3.5, 26.09; Fixed-effecs: OR=9.55, 95%CI: 3.5, 26.09</t>
-  </si>
-  <si>
     <t>Sedation (Figure 37)</t>
   </si>
   <si>
-    <t>N=2 n=284; Random-effects: 8.1% vs. 7.2%, OR=1.14, 95%CI: 0.44, 3; Fixed-effecs: OR=1.15, 95%CI: 0.44, 2.99</t>
-  </si>
-  <si>
     <t>Insomnia (Figure 38)</t>
   </si>
   <si>
-    <t>N=3 n=497; Random-effects: 5.6% vs. 6%, OR=0.93, 95%CI: 0.17, 5.06; Fixed-effecs: OR=0.71, 95%CI: 0.32, 1.55</t>
-  </si>
-  <si>
     <t>Dropouts due to any reason (Figure 46)</t>
   </si>
   <si>
@@ -397,21 +328,12 @@
     <t>N=1 n=71; 28.6% vs. 2.8%, OR=14, 95%CI: 1.68, 116.49</t>
   </si>
   <si>
-    <t>Nausea/vomitting (Figure 55)</t>
-  </si>
-  <si>
     <t>N=1 n=71; 34.7% vs. 1.4%, OR=38.83, 95%CI: 2.19, 687.51</t>
   </si>
   <si>
-    <t>Nausea/vomitting (Figure 56)</t>
-  </si>
-  <si>
     <t>N=1 n=214; 1.4% vs. 8.1%, OR=0.16, 95%CI: 0.03, 0.84</t>
   </si>
   <si>
-    <t>Weight increased (any cutoff) (Figure 57)</t>
-  </si>
-  <si>
     <t>N=1 n=214; 1.4% vs. 10.8%, OR=0.12, 95%CI: 0.02, 0.58</t>
   </si>
   <si>
@@ -442,9 +364,6 @@
     <t>N=1 n=71; 11.4% vs. 2.8%, OR=4.52, 95%CI: 0.48, 42.59</t>
   </si>
   <si>
-    <t>N=2, n=399; Random-effects: SMD=0.17, 95%CI: -0.06, 0.39; Fixed-effecs: SMD=0.17, 95%CI: -0.03, 0.37</t>
-  </si>
-  <si>
     <t>N=1, n=156; SMD=-0.53, 95%CI: -0.86, -0.2</t>
   </si>
   <si>
@@ -505,9 +424,6 @@
     <t>Overall symptoms (PANSS total)  - primary outcome (Figure 3a)</t>
   </si>
   <si>
-    <t>N=4, n=1291; Random-effects: SMD=0.15, 95%CI: -0.05, 0.34; Fixed-effecs: SMD=0.13, 95%CI: 0.02, 0.25</t>
-  </si>
-  <si>
     <t>Response to treatment (≥50% or ≥20% reduction in PANSS total) (Figure 8a)</t>
   </si>
   <si>
@@ -599,6 +515,90 @@
   </si>
   <si>
     <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process and missing outcome data). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>N=5, n=1396; Random-effects: 22.9% vs. 19.6%, OR=1.22, 95%CI: 0.93, 1.60; Fixed-effects: OR=1.22, 95%CI: 0.93, 1.60</t>
+  </si>
+  <si>
+    <t>N=3 n=497; Random-effects: 8.1% vs. 7.1%, OR=1.15, 95%CI: 0.58, 2.29; Fixed-effects: OR=1.19, 95%CI: 0.6, 2.34</t>
+  </si>
+  <si>
+    <t>N=4 n=177; Random-effects: 4.6% vs. 1.6%, OR=3.02, 95%CI: 0.36, 25.76; Fixed-effects: OR=3.02, 95%CI: 0.36, 25.76</t>
+  </si>
+  <si>
+    <t>N=3 n=497; Random-effects: 2.7% vs. 2.7%, OR=0.97, 95%CI: 0.28, 3.38; Fixed-effects: OR=1.01, 95%CI: 0.32, 3.21</t>
+  </si>
+  <si>
+    <t>N=4 n=177; Random-effects: 52.3% vs. 11.4%, OR=8.49, 95%CI: 1.73, 41.66; Fixed-effects: OR=9.3, 95%CI: 3.92, 22.08</t>
+  </si>
+  <si>
+    <t>N=3 n=497; Random-effects: 48.7% vs. 54.6%, OR=0.79, 95%CI: 0.54, 1.15; Fixed-effects: OR=0.78, 95%CI: 0.54, 1.15</t>
+  </si>
+  <si>
+    <t>N=2 n=137; Random-effects: 19.9% vs. 3.5%, OR=6.89, 95%CI: 1.98, 23.92; Fixed-effects: OR=6.89, 95%CI: 1.98, 23.92</t>
+  </si>
+  <si>
+    <t>N=3 n=161; Random-effects: 19.5% vs. 1.6%, OR=15.14, 95%CI: 3.71, 61.75; Fixed-effects: OR=15.14, 95%CI: 3.71, 61.75</t>
+  </si>
+  <si>
+    <t>N=3 n=497; Random-effects: 3.9% vs. 4.4%, OR=0.88, 95%CI: 0.25, 3.15; Fixed-effects: OR=0.92, 95%CI: 0.38, 2.24</t>
+  </si>
+  <si>
+    <t>N=2 n=458; Random-effects: 1.1% vs. 1%, OR=1.04, 95%CI: 0.17, 6.47; Fixed-effects: OR=1.04, 95%CI: 0.17, 6.47</t>
+  </si>
+  <si>
+    <t>N=2 n=458; Random-effects: 2.6% vs. 7.6%, OR=0.32, 95%CI: 0.12, 0.85; Fixed-effects: OR=0.31, 95%CI: 0.12, 0.8</t>
+  </si>
+  <si>
+    <t>N=2 n=458; Random-effects: 5.5% vs. 4.2%, OR=1.35, 95%CI: 0.53, 3.43; Fixed-effects: OR=1.38, 95%CI: 0.56, 3.45</t>
+  </si>
+  <si>
+    <t>N=2 n=458; Random-effects: 7.9% vs. 9%, OR=0.86, 95%CI: 0.43, 1.69; Fixed-effects: OR=0.86, 95%CI: 0.44, 1.68</t>
+  </si>
+  <si>
+    <t>N=3 n=161; Random-effects: 28.8% vs. 4.1%, OR=9.55, 95%CI: 3.5, 26.09; Fixed-effects: OR=9.55, 95%CI: 3.5, 26.09</t>
+  </si>
+  <si>
+    <t>N=2 n=284; Random-effects: 8.1% vs. 7.2%, OR=1.14, 95%CI: 0.44, 3; Fixed-effects: OR=1.15, 95%CI: 0.44, 2.99</t>
+  </si>
+  <si>
+    <t>N=3 n=497; Random-effects: 5.6% vs. 6%, OR=0.93, 95%CI: 0.17, 5.06; Fixed-effects: OR=0.71, 95%CI: 0.32, 1.55</t>
+  </si>
+  <si>
+    <t>N=4, n=1291; Random-effects: SMD=0.15, 95%CI: -0.05, 0.34; Fixed-effects: SMD=0.13, 95%CI: 0.02, 0.25</t>
+  </si>
+  <si>
+    <t>N=4,  n=1357; Random-effects: 23.7% vs. 18.7%, OR=1.35, 95%CI: 0.86, 2.12;  Fixed-effects: OR=1.39, 95%CI: 1.04, 1.86</t>
+  </si>
+  <si>
+    <t>N=2, n=399; Random-effects: SMD=0.23, 95%CI: 0.03, 0.43; Fixed-effects: SMD=0.23, 95%CI: 0.03, 0.43</t>
+  </si>
+  <si>
+    <t>N=2, n=399; Random-effects: SMD=0.23, 95%CI: -0.01, 0.48; Fixed-effects: SMD=0.24, 95%CI: 0.04, 0.44</t>
+  </si>
+  <si>
+    <t>N=2, n=399; Random-effects: SMD=0.17, 95%CI: -0.06, 0.39; Fixed-effects: SMD=0.17, 95%CI: -0.03, 0.37</t>
+  </si>
+  <si>
+    <t>Nausea/vomiting (Figure 55)</t>
+  </si>
+  <si>
+    <t>Nausea/vomiting (Figure 56)</t>
+  </si>
+  <si>
+    <t>QTc prolongation (any cut-off) (Figure 25)</t>
+  </si>
+  <si>
+    <t>QTc prolongation (any cut-off)</t>
+  </si>
+  <si>
+    <t>Weight increased (≥7% increase or any cut-off) (Figure 27)</t>
+  </si>
+  <si>
+    <t>Prolactin elevation (any cut-off)</t>
+  </si>
+  <si>
+    <t>Weight increased (any cut-off) (Figure 57)</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1097,131 +1097,131 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="197" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,131 +1263,131 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1425,108 +1425,108 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08253F0C-4289-D043-AC5B-88B42FBA67DF}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,775 +1562,775 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2342,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D28D98F-934C-324D-A021-B678B5C46157}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2369,522 +2369,522 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2923,62 +2923,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="281" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
